--- a/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
   <si>
     <t>Controller</t>
   </si>
@@ -133,6 +133,40 @@
   </si>
   <si>
     <t>CẤU HÌNH PHẦN CỨNG - OPENSTACK MITAKA LAB</t>
+  </si>
+  <si>
+    <t>CTL</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>Monitor 
+Logging</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>monlog</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>compute1</t>
+  </si>
+  <si>
+    <t>cinder</t>
+  </si>
+  <si>
+    <t>swift2</t>
+  </si>
+  <si>
+    <t>10.10.10.9</t>
+  </si>
+  <si>
+    <t>192.168.1.9</t>
   </si>
 </sst>
 </file>
@@ -482,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,6 +565,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +610,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -558,56 +646,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,322 +929,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I19"/>
+  <dimension ref="C4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+    <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
+      <c r="E5" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
-      <c r="D7" s="34" t="s">
+    <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="31"/>
+      <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="32"/>
+      <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="34" t="s">
+    <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="36" t="s">
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="29"/>
+      <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I12" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="J12" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="27" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="H13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="J13" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+    <row r="14" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="27" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="J14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="28" t="s">
+    <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I15" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
-      <c r="D15" s="35" t="s">
+      <c r="J15" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="34"/>
+      <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="39" t="s">
+      <c r="E16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="I16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="J16" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
-      <c r="D16" s="37" t="s">
+    <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="40" t="s">
+      <c r="E17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="J17" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="3:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1248,14 +1354,14 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1318,14 +1424,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -1388,14 +1494,14 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>

--- a/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
+    <sheet name="IP-Planning (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
   <si>
     <t>Controller</t>
   </si>
@@ -166,7 +167,25 @@
     <t>10.10.10.9</t>
   </si>
   <si>
-    <t>192.168.1.9</t>
+    <t>172.16.69.9</t>
+  </si>
+  <si>
+    <t>172.16.69.10</t>
+  </si>
+  <si>
+    <t>172.16.69.20</t>
+  </si>
+  <si>
+    <t>172.16.69.30</t>
+  </si>
+  <si>
+    <t>172.16.69.40</t>
+  </si>
+  <si>
+    <t>172.16.69.41</t>
+  </si>
+  <si>
+    <t>172.16.69.1</t>
   </si>
 </sst>
 </file>
@@ -516,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +621,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,9 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,21 +973,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1006,7 +1031,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1032,7 +1057,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1081,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1105,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1090,23 +1115,23 @@
         <v>46</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1130,27 +1155,27 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1227,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1228,7 +1253,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1252,7 +1277,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
@@ -1354,14 +1379,14 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1424,14 +1449,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -1494,14 +1519,14 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
@@ -1560,4 +1585,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="34"/>
+      <c r="D8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="32"/>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="38"/>
+      <c r="D17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/DOCS-OPS-Mitaka/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
     <sheet name="IP-Planning (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="OpenStack-Mitaka-HA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="70">
   <si>
     <t>Controller</t>
   </si>
@@ -186,6 +187,57 @@
   </si>
   <si>
     <t>172.16.69.1</t>
+  </si>
+  <si>
+    <t>controller1</t>
+  </si>
+  <si>
+    <t>CTL2</t>
+  </si>
+  <si>
+    <t>CTL1</t>
+  </si>
+  <si>
+    <t>CTL3</t>
+  </si>
+  <si>
+    <t>controller2</t>
+  </si>
+  <si>
+    <t>com2</t>
+  </si>
+  <si>
+    <t>com1</t>
+  </si>
+  <si>
+    <t>+32GB</t>
+  </si>
+  <si>
+    <t>+64GB</t>
+  </si>
+  <si>
+    <t>+8CPU</t>
+  </si>
+  <si>
+    <t>+200GB</t>
+  </si>
+  <si>
+    <t>10.10.20.10</t>
+  </si>
+  <si>
+    <t>10.10.20.20</t>
+  </si>
+  <si>
+    <t>10.10.30.40</t>
+  </si>
+  <si>
+    <t>10.10.20.30</t>
+  </si>
+  <si>
+    <t>Access internet</t>
+  </si>
+  <si>
+    <t>controller3</t>
   </si>
 </sst>
 </file>
@@ -254,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -531,11 +583,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +691,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,6 +740,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,16 +1043,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -1031,7 +1101,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1057,7 +1127,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1175,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1131,7 +1201,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="32"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1225,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1297,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1253,7 +1323,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1347,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="38"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
@@ -1346,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,14 +1449,14 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1449,14 +1519,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -1519,14 +1589,14 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
@@ -1591,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -1608,16 +1678,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -1666,7 +1736,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1692,7 +1762,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1786,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1810,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1766,7 +1836,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="32"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1860,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1932,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1888,7 +1958,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1982,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="38"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
@@ -1975,4 +2045,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="3:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="37"/>
+      <c r="D9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="34"/>
+      <c r="D11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="34"/>
+      <c r="D14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="34"/>
+      <c r="D15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="40"/>
+      <c r="D20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="K10:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>